--- a/biology/Botanique/Pilea_crassifolia/Pilea_crassifolia.xlsx
+++ b/biology/Botanique/Pilea_crassifolia/Pilea_crassifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pilea crassifolia est une espèce de plantes à fleurs de la famille des Urticaceae native d'Amérique centrale et d'Amérique du Sud. C'est une plante herbacée pérenne.
  Portail de la botanique   Portail de l’Amérique centrale   Portail de l’Amérique du Sud                   </t>
